--- a/attacks.xlsx
+++ b/attacks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nischalkashyap/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nischalkashyap/Downloads/Pokemon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA928B8C-52AC-2F42-9613-BEA1DA0EDAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D0ECCA-F0DA-744A-829C-295AA9CE4D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{5DCE775D-CE1A-CD40-98A1-EE56CA825F7C}"/>
   </bookViews>
@@ -174,8 +174,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -203,8 +219,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,19 +537,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6529E5-0023-524F-BF29-930636B8D540}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +559,11 @@
       <c r="C1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,8 +573,11 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -563,8 +587,11 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -574,8 +601,11 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -585,8 +615,11 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -596,8 +629,11 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -607,8 +643,11 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -618,8 +657,11 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -629,8 +671,11 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -640,8 +685,11 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -651,8 +699,11 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -662,8 +713,11 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -673,8 +727,11 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -684,8 +741,11 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -695,8 +755,11 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -706,8 +769,11 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -717,8 +783,11 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -728,8 +797,11 @@
       <c r="C18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -739,8 +811,11 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -750,8 +825,11 @@
       <c r="C20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -761,8 +839,11 @@
       <c r="C21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -772,8 +853,11 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -783,8 +867,11 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -794,8 +881,11 @@
       <c r="C24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -805,8 +895,11 @@
       <c r="C25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -816,8 +909,11 @@
       <c r="C26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -827,8 +923,11 @@
       <c r="C27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -838,8 +937,11 @@
       <c r="C28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -849,8 +951,11 @@
       <c r="C29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -860,8 +965,11 @@
       <c r="C30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -871,8 +979,11 @@
       <c r="C31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -882,8 +993,11 @@
       <c r="C32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -892,6 +1006,9 @@
       </c>
       <c r="C33" t="s">
         <v>44</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
